--- a/设备管理中间层/需求设计/业务表格设计V0.4.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21225" windowHeight="12105" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="21225" windowHeight="12105" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="fileinfo" sheetId="11" r:id="rId9"/>
     <sheet name="programs" sheetId="12" r:id="rId10"/>
     <sheet name="datastats" sheetId="13" r:id="rId11"/>
-    <sheet name="taskinfo" sheetId="7" r:id="rId12"/>
+    <sheet name="paraminfo" sheetId="7" r:id="rId12"/>
+    <sheet name="config" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="292">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -890,25 +891,55 @@
     <t>统计信息</t>
   </si>
   <si>
-    <t>taskinfo（任务信息表）</t>
-  </si>
-  <si>
-    <t>设备序列号</t>
-  </si>
-  <si>
-    <t>tasktype</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>任务内容</t>
-  </si>
-  <si>
-    <t>任务状态</t>
-  </si>
-  <si>
-    <t>0,1,2（0-待完成；1-已完成；2-取消任务）</t>
+    <t>paraminfo（参数信息表）</t>
+  </si>
+  <si>
+    <t>paramid</t>
+  </si>
+  <si>
+    <t>参数代码</t>
+  </si>
+  <si>
+    <t>paraminfo</t>
+  </si>
+  <si>
+    <t>参数内容</t>
+  </si>
+  <si>
+    <t>参数状态</t>
+  </si>
+  <si>
+    <t>0-未生效；1-已生效；</t>
+  </si>
+  <si>
+    <t>config（配置信息表）</t>
+  </si>
+  <si>
+    <t>配置名称</t>
+  </si>
+  <si>
+    <t>配置类型</t>
+  </si>
+  <si>
+    <t>1-系统参数配置；2-设备参数配置</t>
+  </si>
+  <si>
+    <t>configid</t>
+  </si>
+  <si>
+    <t>配置代码</t>
+  </si>
+  <si>
+    <t>configinfo</t>
+  </si>
+  <si>
+    <t>配置内容</t>
+  </si>
+  <si>
+    <t>配置状态</t>
+  </si>
+  <si>
+    <t>0,1（0-未生效；1-已生效；）</t>
   </si>
 </sst>
 </file>
@@ -916,10 +947,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -951,36 +982,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,31 +1003,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,6 +1027,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1055,27 +1064,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1088,7 +1081,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,13 +1146,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,25 +1290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,55 +1308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,73 +1326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,30 +1361,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1368,12 +1375,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1398,6 +1418,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1406,22 +1437,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1434,10 +1465,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1446,133 +1477,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2174,8 +2205,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2498,7 +2529,7 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2781,8 +2812,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2852,16 +2883,16 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2869,10 +2900,241 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>256</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2883,21 +3145,23 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>15</v>
@@ -2905,29 +3169,31 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>1024</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2939,33 +3205,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -2976,7 +3238,9 @@
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
@@ -3359,8 +3623,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>

--- a/设备管理中间层/需求设计/业务表格设计V0.4.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21225" windowHeight="12105" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="21225" windowHeight="12105" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -2813,7 +2813,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3042,7 +3042,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
